--- a/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>5.386278759431661</v>
+        <v>0.5919738843804225</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2941203485620266</v>
+        <v>0.234678462866897</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.5919738843804225</v>
+        <v>67.34448032620639</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8472844316881497</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.08909779639285949</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.234678462866897</v>
+        <v>0.2685218614894114</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>67.34448032620639</v>
+        <v>67.34451822953997</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8472844316881497</v>
+        <v>0.8472843067880734</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.08909779639285949</v>
+        <v>0.08909783282764938</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2685218614894114</v>
+        <v>0.2686159059869004</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/low_ajust_apbi.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>67.34451822953997</v>
+        <v>63.45555768480699</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8472843067880734</v>
+        <v>0.8568180003668254</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.08909783282764938</v>
+        <v>0.08574154022591908</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2686159059869004</v>
+        <v>0.2905096036660303</v>
       </c>
     </row>
   </sheetData>
